--- a/doc/座席录音问题资源接口说明文档.xlsx
+++ b/doc/座席录音问题资源接口说明文档.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="56">
   <si>
     <t>REST接口说明</t>
   </si>
@@ -193,6 +195,38 @@
   </si>
   <si>
     <t>JsonList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"subitemname":"0","subitemvalue":"0"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subitems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-05-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应问卷中的 单选组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +288,22 @@
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -338,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +428,24 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -386,9 +454,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -742,21 +807,21 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
@@ -918,6 +983,182 @@
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" s="13" customFormat="1">
+      <c r="A22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" s="13" customFormat="1">
+      <c r="A23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" s="13" customFormat="1">
+      <c r="A24" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" s="17" customFormat="1">
+      <c r="A25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="17" customFormat="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" s="13" customFormat="1">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="13" customFormat="1">
+      <c r="A28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="13" customFormat="1">
+      <c r="A29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="13" customFormat="1">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="13" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="13" customFormat="1">
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="13" customFormat="1">
+      <c r="A33" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="13" customFormat="1">
+      <c r="A34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="13" customFormat="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" s="13" customFormat="1">
+      <c r="A36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -928,4 +1169,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/座席录音问题资源接口说明文档.xlsx
+++ b/doc/座席录音问题资源接口说明文档.xlsx
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iRecordeQuestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?fid=xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://hostname/irecorderservice/irecordequestion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCRDUMEX01</t>
   </si>
   <si>
@@ -193,6 +185,14 @@
   </si>
   <si>
     <t>JsonList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hostname/irecorderservice/irecorderquestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iRecorderQuestion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,6 +378,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -386,9 +389,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,7 +687,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
@@ -742,28 +742,28 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -792,100 +792,100 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/doc/座席录音问题资源接口说明文档.xlsx
+++ b/doc/座席录音问题资源接口说明文档.xlsx
@@ -145,18 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.填空 1.单选 2.问答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TRQ_SCRSUB.SUBNO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>答案编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TRQ_SCRSUB.SUBDESC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +181,18 @@
   </si>
   <si>
     <t>iRecorderQuestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.开场白 2.建议 3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +687,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -743,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -848,10 +848,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>34</v>
@@ -862,30 +862,30 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/doc/座席录音问题资源接口说明文档.xlsx
+++ b/doc/座席录音问题资源接口说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>REST接口说明</t>
   </si>
@@ -149,29 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TRQ_SCRSUB.SUBNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRQ_SCRSUB.SUBDESC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音较低，造成用户反感，而要求提高声音</t>
-  </si>
-  <si>
-    <t>答案描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JsonList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +170,10 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questionCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +668,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -720,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -743,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -763,7 +744,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -851,7 +832,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>34</v>
@@ -862,31 +843,21 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5"/>

--- a/doc/座席录音问题资源接口说明文档.xlsx
+++ b/doc/座席录音问题资源接口说明文档.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/doc/座席录音问题资源接口说明文档.xlsx
+++ b/doc/座席录音问题资源接口说明文档.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>REST接口说明</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>questionCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{'itemID': 'C0016', 'itemDesc': '\xbd\xa8\xd2\xe9\xa3\xa8\xc6\xc0\xb9\xc0\xbd\xe1\xb9\xfb 40%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 2, 'itemPerc': 100}, {'itemID': 'C017', 'itemDesc': '\xbd\xa8\xd2\xe9C017', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 2, 'itemPerc': 100}, {'itemID': 'C001', 'itemDesc': '\xbf\xaa\xb3\xa1\xb0\xd7(\xd5\xe6\xb3\xcf\xce\xca\xba\xf2\xa3\xac\xd7\xa8\xd2\xb5\xc9\xed\xb7\xdd\xd3\xeb\xb6\xe0\xc3\xc0\xd7\xcc\xb5\xc4\xb9\xd8\xcf\xb5 15%)', 'hasRemark': 0, 'fid': 'CEM', 'questionCount': 4, 'itemPerc': 15}, {'itemID': 'C002', 'itemDesc': '\xbf\xaa\xb3\xa1\xb0\xd7,(\xb1\xed\xb4\xef\xcd\xac\xc0\xed\xd0\xc4,\xb6\xd4\xc2\xe8\xc2\xe8/\xd4\xd0\xb8\xbe\xb5\xc4\xb9\xd8\xd0\xc4 \xd7\xd4\xc8\xbb\xd5\xe6\xb3\xcf 15%)', 'hasRemark': 1, 'fid': 'CEM', 'questionCount': 5, 'itemPerc': 15}, {'itemID': 'C003', 'itemDesc': '\xbf\xaa\xb3\xa1\xb0\xd7,(\xb8\xe6\xd6\xae\xc4\xbf\xb5\xc4\xba\xcd\xc0\xfb\xd2\xe6\xa3\xac\xc3\xf7\xc8\xb7\xb8\xe6\xd6\xaa\xd6\xc2\xb5\xe7\xb5\xc4\xc4\xbf\xb5\xc4\xbb\xf2\xc0\xfb\xd2\xe6 2\xa3\xac\xb2\xa2\xc8\xb7\xc8\xcf\xc9\xfa\xc8\xd5\xa3\xac\xd4\xa4\xb2\xfa\xc6\xda15%)', 'hasRemark': 1, 'fid': 'CEM', 'questionCount': 5, 'itemPerc': 15}, {'itemID': 'C004', 'itemDesc': '\xbf\xaa\xb3\xa1\xb0\xd7,(\xd5\xf7\xb5\xc3\xcd\xac\xd2\xe2\xa3\xac\xb5\xc3\xb5\xbd\xa1\xb0\xd0\xed\xbf\xc9\xa1\xb1\xb5\xc4\xd2\xe2\xcb\xbc\xb2\xc5\xbf\xc9\xd2\xd4\xbc\xcc\xd0\xf8 15%\xa3\xa9', 'hasRemark': 1, 'fid': 'CEM', 'questionCount': 4, 'itemPerc': 15}, {'itemID': 'C005', 'itemDesc': '\xcc\xe1\xce\xca\xa3\xa8\xc4\xbf\xb5\xc4\xd0\xd4\xcc\xe1\xce\xca30%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 4, 'itemPerc': 30}, {'itemID': 'C006', 'itemDesc': '\xcc\xe1\xce\xca\xa3\xa8\xd3\xc5\xbd\xd7\xbc\xb01000\xc8\xd5\xb8\xc5\xc4\xee30%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 3, 'itemPerc': 30}, {'itemID': 'C007', 'itemDesc': '\xcc\xe1\xce\xca\xa3\xa8\xb7\xd6\xce\xf6\xc1\xcb\xbd\xe2\xbf\xcd\xbb\xa7\xcf\xe0\xb9\xd8\xd7\xb4\xbf\xf630%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 4, 'itemPerc': 30}, {'itemID': 'C008', 'itemDesc': '\xcc\xe1\xce\xca\xa3\xa8\xd7\xdc\xbd\xe1\xb9\xd8\xbc\xfc\xd0\xc5\xcf\xa230%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 3, 'itemPerc': 30}, {'itemID': 'C009', 'itemDesc': '\xbd\xa8\xd2\xe9\xa3\xa8\xbd\xa8\xd2\xe9\xd1\xa1\xd4\xf1\xb7\xbd\xb0\xb830%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 3, 'itemPerc': 30}, {'itemID': 'C010', 'itemDesc': '\xbd\xa8\xd2\xe9\xa3\xa8\xd4\xcb\xd3\xc3\xbe\xad\xd1\xe930%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 2, 'itemPerc': 30}, {'itemID': 'C011', 'itemDesc': '\xbd\xa8\xd2\xe9\xa3\xa8\xbd\xe9\xc9\xdc\xb2\xfa\xc6\xb7\xa3\xac\xd7\xd4\xc8\xbb\xb9\xfd\xb6\xc91\xa3\xac\xcc\xd8\xb5\xe31\xa3\xac\xd3\xc5\xca\xc61\xa3\xac\xba\xc3\xb4\xa61 30%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 5, 'itemPerc': 30}, {'itemID': 'C012', 'itemDesc': '\xbd\xa8\xd2\xe9\xa3\xa8\xc6\xc0\xb9\xc0\xbd\xe1\xb9\xfb 30%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 4, 'itemPerc': 30}, {'itemID': 'C013', 'itemDesc': '\xbd\xe1\xca\xf8\xa3\xa8\xd4\xbc\xb6\xa8\xcf\xc2\xb4\xce\xd6\xc2\xb5\xe7\xca\xb1\xbc\xe4 5%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 11, 'itemPerc': 5}, {'itemID': 'C014', 'itemDesc': '\xb9\xb5\xcd\xa8\xbc\xbc\xc7\xc9\xa3\xa8\xd3\xef\xd2\xf42\xa3\xac\xd3\xef\xcb\xd92\xa3\xac\xd3\xef\xb5\xf72\xa3\xac\xc0\xed\xbd\xe24 15%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 11, 'itemPerc': 15}, {'itemID': 'C015', 'itemDesc': '\xb9\xb5\xcd\xa8\xbc\xbc\xc7\xc9\xa3\xa8\xcf\xfb\xb7\xd1\xd5\xdf\xb7\xb4\xc0\xa1 5%\xa3\xa9', 'hasRemark': None, 'fid': 'CEM', 'questionCount': 11, 'itemPerc': 5}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/irecorderservice/irecorderquestion?fid=CEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +382,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +689,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -860,18 +881,24 @@
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="10"/>
@@ -891,9 +918,11 @@
       <c r="D21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
